--- a/Egypt-data/Egypt.xlsx
+++ b/Egypt-data/Egypt.xlsx
@@ -1,46 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\R projects\COVID19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\R projects\COVID19\Egypt-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23336B3-5C2B-4B46-8B68-5459871C44FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BD0879-2712-442B-8C90-F394960422FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Egypt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>new_cases</t>
   </si>
+  <si>
+    <t>all_cases</t>
+  </si>
+  <si>
+    <t>recovered</t>
+  </si>
+  <si>
+    <t>all_deaths</t>
+  </si>
+  <si>
+    <t>new_deaths</t>
+  </si>
+  <si>
+    <t>converters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,21 +56,315 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -71,16 +372,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -112,7 +602,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -124,7 +614,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -171,6 +661,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -206,6 +713,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -358,405 +882,1165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43903</v>
       </c>
       <c r="B2">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>93</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43904</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43905</v>
       </c>
       <c r="B4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>126</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43906</v>
       </c>
       <c r="B5">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>166</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43907</v>
       </c>
       <c r="B6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>196</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43908</v>
       </c>
       <c r="B7">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>210</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43909</v>
       </c>
       <c r="B8">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>256</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43910</v>
       </c>
       <c r="B9">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>285</v>
+      </c>
+      <c r="D9">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43911</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>294</v>
+      </c>
+      <c r="D10">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43912</v>
       </c>
       <c r="B11">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>327</v>
+      </c>
+      <c r="D11">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43913</v>
       </c>
       <c r="B12">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>366</v>
+      </c>
+      <c r="D12">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43914</v>
       </c>
       <c r="B13">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>402</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43915</v>
       </c>
       <c r="B14">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>456</v>
+      </c>
+      <c r="D14">
+        <v>95</v>
+      </c>
+      <c r="E14">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43916</v>
       </c>
       <c r="B15">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>495</v>
+      </c>
+      <c r="D15">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43917</v>
       </c>
       <c r="B16">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>536</v>
+      </c>
+      <c r="D16">
+        <v>116</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43918</v>
       </c>
       <c r="B17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>576</v>
+      </c>
+      <c r="D17">
+        <v>121</v>
+      </c>
+      <c r="E17">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43919</v>
       </c>
       <c r="B18">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>609</v>
+      </c>
+      <c r="D18">
+        <v>132</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43920</v>
       </c>
       <c r="B19">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>656</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>41</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43921</v>
       </c>
       <c r="B20">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>710</v>
+      </c>
+      <c r="D20">
+        <v>157</v>
+      </c>
+      <c r="E20">
+        <v>46</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43922</v>
       </c>
       <c r="B21">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>779</v>
+      </c>
+      <c r="D21">
+        <v>179</v>
+      </c>
+      <c r="E21">
+        <v>52</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43923</v>
       </c>
       <c r="B22">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>865</v>
+      </c>
+      <c r="D22">
+        <v>201</v>
+      </c>
+      <c r="E22">
+        <v>58</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43924</v>
       </c>
       <c r="B23">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>985</v>
+      </c>
+      <c r="D23">
+        <v>216</v>
+      </c>
+      <c r="E23">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43925</v>
       </c>
       <c r="B24">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>1070</v>
+      </c>
+      <c r="D24">
+        <v>241</v>
+      </c>
+      <c r="E24">
+        <v>71</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43926</v>
       </c>
       <c r="B25">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>1173</v>
+      </c>
+      <c r="D25">
+        <v>247</v>
+      </c>
+      <c r="E25">
+        <v>78</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43927</v>
       </c>
       <c r="B26">
         <v>149</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>1322</v>
+      </c>
+      <c r="D26">
+        <v>259</v>
+      </c>
+      <c r="E26">
+        <v>85</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43928</v>
       </c>
       <c r="B27">
         <v>128</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>1450</v>
+      </c>
+      <c r="D27">
+        <v>276</v>
+      </c>
+      <c r="E27">
+        <v>94</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43929</v>
       </c>
       <c r="B28">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>1560</v>
+      </c>
+      <c r="D28">
+        <v>305</v>
+      </c>
+      <c r="E28">
+        <v>103</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43930</v>
       </c>
       <c r="B29">
         <v>139</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>1699</v>
+      </c>
+      <c r="D29">
+        <v>348</v>
+      </c>
+      <c r="E29">
+        <v>118</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43931</v>
       </c>
       <c r="B30">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>1794</v>
+      </c>
+      <c r="D30">
+        <v>384</v>
+      </c>
+      <c r="E30">
+        <v>135</v>
+      </c>
+      <c r="F30">
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43932</v>
       </c>
       <c r="B31">
         <v>145</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>1939</v>
+      </c>
+      <c r="D31">
+        <v>426</v>
+      </c>
+      <c r="E31">
+        <v>146</v>
+      </c>
+      <c r="F31">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43933</v>
       </c>
       <c r="B32">
         <v>126</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <v>2065</v>
+      </c>
+      <c r="D32">
+        <v>447</v>
+      </c>
+      <c r="E32">
+        <v>159</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43934</v>
       </c>
       <c r="B33">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <v>2190</v>
+      </c>
+      <c r="D33">
+        <v>488</v>
+      </c>
+      <c r="E33">
+        <v>164</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43935</v>
       </c>
       <c r="B34">
         <v>160</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <v>2350</v>
+      </c>
+      <c r="D34">
+        <v>514</v>
+      </c>
+      <c r="E34">
+        <v>178</v>
+      </c>
+      <c r="F34">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43936</v>
       </c>
       <c r="B35">
         <v>155</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <v>2505</v>
+      </c>
+      <c r="D35">
+        <v>553</v>
+      </c>
+      <c r="E35">
+        <v>183</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43937</v>
       </c>
       <c r="B36">
         <v>168</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>2673</v>
+      </c>
+      <c r="D36">
+        <v>596</v>
+      </c>
+      <c r="E36">
+        <v>196</v>
+      </c>
+      <c r="F36">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43938</v>
       </c>
       <c r="B37">
         <v>171</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>2844</v>
+      </c>
+      <c r="D37">
+        <v>646</v>
+      </c>
+      <c r="E37">
+        <v>205</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43939</v>
       </c>
       <c r="B38">
         <v>188</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>3032</v>
+      </c>
+      <c r="D38">
+        <v>701</v>
+      </c>
+      <c r="E38">
+        <v>224</v>
+      </c>
+      <c r="F38">
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43940</v>
       </c>
       <c r="B39">
         <v>112</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>3144</v>
+      </c>
+      <c r="D39">
+        <v>732</v>
+      </c>
+      <c r="E39">
+        <v>239</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43941</v>
       </c>
       <c r="B40">
         <v>189</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <v>3333</v>
+      </c>
+      <c r="D40">
+        <v>821</v>
+      </c>
+      <c r="E40">
+        <v>250</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43942</v>
       </c>
       <c r="B41">
         <v>157</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <v>3490</v>
+      </c>
+      <c r="D41">
+        <v>870</v>
+      </c>
+      <c r="E41">
+        <v>264</v>
+      </c>
+      <c r="F41">
+        <v>14</v>
+      </c>
+      <c r="G41">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43943</v>
       </c>
       <c r="B42">
         <v>169</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <v>3659</v>
+      </c>
+      <c r="D42">
+        <v>935</v>
+      </c>
+      <c r="E42">
+        <v>276</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43944</v>
       </c>
       <c r="B43">
         <v>232</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C43">
+        <v>3891</v>
+      </c>
+      <c r="D43">
+        <v>1004</v>
+      </c>
+      <c r="E43">
+        <v>287</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43945</v>
       </c>
       <c r="B44">
         <v>201</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C44">
+        <v>4092</v>
+      </c>
+      <c r="D44">
+        <v>1075</v>
+      </c>
+      <c r="E44">
+        <v>294</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43946</v>
       </c>
       <c r="B45">
         <v>227</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <v>4319</v>
+      </c>
+      <c r="D45">
+        <v>1114</v>
+      </c>
+      <c r="E45">
+        <v>307</v>
+      </c>
+      <c r="F45">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43947</v>
       </c>
       <c r="B46">
         <v>215</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <v>4534</v>
+      </c>
+      <c r="D46">
+        <v>1176</v>
+      </c>
+      <c r="E46">
+        <v>317</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43948</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>248</v>
+      </c>
+      <c r="C47">
+        <v>4782</v>
+      </c>
+      <c r="D47">
+        <v>1236</v>
+      </c>
+      <c r="E47">
+        <v>337</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="G47">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43949</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>260</v>
+      </c>
+      <c r="C48">
+        <v>5042</v>
+      </c>
+      <c r="D48">
+        <v>1304</v>
+      </c>
+      <c r="E48">
+        <v>359</v>
+      </c>
+      <c r="F48">
+        <v>22</v>
+      </c>
+      <c r="G48">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43950</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>226</v>
+      </c>
+      <c r="C49">
+        <v>5268</v>
+      </c>
+      <c r="D49">
+        <v>1335</v>
+      </c>
+      <c r="E49">
+        <v>380</v>
+      </c>
+      <c r="F49">
+        <v>21</v>
+      </c>
+      <c r="G49">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43951</v>
       </c>
+      <c r="B50">
+        <v>269</v>
+      </c>
+      <c r="C50">
+        <v>5537</v>
+      </c>
+      <c r="D50">
+        <v>1381</v>
+      </c>
+      <c r="E50">
+        <v>392</v>
+      </c>
+      <c r="F50">
+        <v>12</v>
+      </c>
+      <c r="G50">
+        <v>1780</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Egypt-data/Egypt.xlsx
+++ b/Egypt-data/Egypt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\R projects\COVID19\Egypt-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BD0879-2712-442B-8C90-F394960422FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C492043-DED2-492B-A450-5BDA771D8C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -882,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2040,6 +2040,197 @@
         <v>1780</v>
       </c>
     </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B51">
+        <v>358</v>
+      </c>
+      <c r="C51">
+        <v>5895</v>
+      </c>
+      <c r="D51">
+        <v>1460</v>
+      </c>
+      <c r="E51">
+        <v>406</v>
+      </c>
+      <c r="F51">
+        <v>14</v>
+      </c>
+      <c r="G51">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B52">
+        <v>298</v>
+      </c>
+      <c r="C52">
+        <v>6193</v>
+      </c>
+      <c r="D52">
+        <v>1522</v>
+      </c>
+      <c r="E52">
+        <v>415</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>43972</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>43982</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Egypt-data/Egypt.xlsx
+++ b/Egypt-data/Egypt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\R projects\COVID19\Egypt-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C492043-DED2-492B-A450-5BDA771D8C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373974CC-EDD6-44D6-A709-B83770FC34C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,7 +885,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2090,10 +2090,46 @@
       <c r="A53" s="1">
         <v>43954</v>
       </c>
+      <c r="B53">
+        <v>272</v>
+      </c>
+      <c r="C53">
+        <v>6465</v>
+      </c>
+      <c r="D53">
+        <v>1562</v>
+      </c>
+      <c r="E53">
+        <v>429</v>
+      </c>
+      <c r="F53">
+        <v>14</v>
+      </c>
+      <c r="G53">
+        <v>2041</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43955</v>
+      </c>
+      <c r="B54">
+        <v>348</v>
+      </c>
+      <c r="C54">
+        <v>6813</v>
+      </c>
+      <c r="D54">
+        <v>1632</v>
+      </c>
+      <c r="E54">
+        <v>436</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>2139</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">

--- a/Egypt-data/Egypt.xlsx
+++ b/Egypt-data/Egypt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\R projects\COVID19\Egypt-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373974CC-EDD6-44D6-A709-B83770FC34C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DA4797-3DFA-47F0-8ECD-8FC8053636C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2136,45 +2136,207 @@
       <c r="A55" s="1">
         <v>43956</v>
       </c>
+      <c r="B55">
+        <v>388</v>
+      </c>
+      <c r="C55">
+        <v>7201</v>
+      </c>
+      <c r="D55">
+        <v>1730</v>
+      </c>
+      <c r="E55">
+        <v>452</v>
+      </c>
+      <c r="F55">
+        <v>16</v>
+      </c>
+      <c r="G55">
+        <v>2224</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43957</v>
       </c>
+      <c r="B56">
+        <v>387</v>
+      </c>
+      <c r="C56">
+        <v>7588</v>
+      </c>
+      <c r="D56">
+        <v>1815</v>
+      </c>
+      <c r="E56">
+        <v>469</v>
+      </c>
+      <c r="F56">
+        <v>17</v>
+      </c>
+      <c r="G56">
+        <v>2314</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43958</v>
       </c>
+      <c r="B57">
+        <v>393</v>
+      </c>
+      <c r="C57">
+        <v>7981</v>
+      </c>
+      <c r="D57">
+        <v>1887</v>
+      </c>
+      <c r="E57">
+        <v>482</v>
+      </c>
+      <c r="F57">
+        <v>13</v>
+      </c>
+      <c r="G57">
+        <v>2378</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43959</v>
       </c>
+      <c r="B58">
+        <v>495</v>
+      </c>
+      <c r="C58">
+        <v>8476</v>
+      </c>
+      <c r="D58">
+        <v>1945</v>
+      </c>
+      <c r="E58">
+        <v>503</v>
+      </c>
+      <c r="F58">
+        <v>21</v>
+      </c>
+      <c r="G58">
+        <v>2416</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43960</v>
       </c>
+      <c r="B59">
+        <v>488</v>
+      </c>
+      <c r="C59">
+        <v>8964</v>
+      </c>
+      <c r="D59">
+        <v>2002</v>
+      </c>
+      <c r="E59">
+        <v>514</v>
+      </c>
+      <c r="F59">
+        <v>11</v>
+      </c>
+      <c r="G59">
+        <v>2476</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43961</v>
       </c>
+      <c r="B60">
+        <v>436</v>
+      </c>
+      <c r="C60">
+        <v>9400</v>
+      </c>
+      <c r="D60">
+        <v>2075</v>
+      </c>
+      <c r="E60">
+        <v>525</v>
+      </c>
+      <c r="F60">
+        <v>11</v>
+      </c>
+      <c r="G60">
+        <v>2556</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43962</v>
       </c>
+      <c r="B61">
+        <v>346</v>
+      </c>
+      <c r="C61">
+        <v>9746</v>
+      </c>
+      <c r="D61">
+        <v>2172</v>
+      </c>
+      <c r="E61">
+        <v>533</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61">
+        <v>2655</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43963</v>
       </c>
+      <c r="B62">
+        <v>347</v>
+      </c>
+      <c r="C62">
+        <v>10093</v>
+      </c>
+      <c r="D62">
+        <v>2326</v>
+      </c>
+      <c r="E62">
+        <v>544</v>
+      </c>
+      <c r="F62">
+        <v>11</v>
+      </c>
+      <c r="G62">
+        <v>2811</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43964</v>
+      </c>
+      <c r="B63">
+        <v>338</v>
+      </c>
+      <c r="C63">
+        <v>10431</v>
+      </c>
+      <c r="D63">
+        <v>2486</v>
+      </c>
+      <c r="E63">
+        <v>556</v>
+      </c>
+      <c r="F63">
+        <v>12</v>
+      </c>
+      <c r="G63">
+        <v>2980</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">

--- a/Egypt-data/Egypt.xlsx
+++ b/Egypt-data/Egypt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\R projects\COVID19\Egypt-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DA4797-3DFA-47F0-8ECD-8FC8053636C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90257A67-BE51-45AE-A08F-0BA406BBCD49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -882,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2343,91 +2343,765 @@
       <c r="A64" s="1">
         <v>43965</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>398</v>
+      </c>
+      <c r="C64">
+        <v>10829</v>
+      </c>
+      <c r="D64">
+        <v>2626</v>
+      </c>
+      <c r="E64">
+        <v>571</v>
+      </c>
+      <c r="F64">
+        <v>15</v>
+      </c>
+      <c r="G64">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43966</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>399</v>
+      </c>
+      <c r="C65">
+        <v>11228</v>
+      </c>
+      <c r="D65">
+        <v>2799</v>
+      </c>
+      <c r="E65">
+        <v>592</v>
+      </c>
+      <c r="F65">
+        <v>21</v>
+      </c>
+      <c r="G65">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43967</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>491</v>
+      </c>
+      <c r="C66">
+        <v>11719</v>
+      </c>
+      <c r="D66">
+        <v>2950</v>
+      </c>
+      <c r="E66">
+        <v>612</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+      <c r="G66">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43968</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>510</v>
+      </c>
+      <c r="C67">
+        <v>12229</v>
+      </c>
+      <c r="D67">
+        <v>3172</v>
+      </c>
+      <c r="E67">
+        <v>630</v>
+      </c>
+      <c r="F67">
+        <v>18</v>
+      </c>
+      <c r="G67">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43969</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>535</v>
+      </c>
+      <c r="C68">
+        <v>12764</v>
+      </c>
+      <c r="D68">
+        <v>3440</v>
+      </c>
+      <c r="E68">
+        <v>645</v>
+      </c>
+      <c r="F68">
+        <v>15</v>
+      </c>
+      <c r="G68">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43970</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>720</v>
+      </c>
+      <c r="C69">
+        <v>13484</v>
+      </c>
+      <c r="D69">
+        <v>3742</v>
+      </c>
+      <c r="E69">
+        <v>659</v>
+      </c>
+      <c r="F69">
+        <v>14</v>
+      </c>
+      <c r="G69">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43971</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>745</v>
+      </c>
+      <c r="C70">
+        <v>14229</v>
+      </c>
+      <c r="D70">
+        <v>3994</v>
+      </c>
+      <c r="E70">
+        <v>680</v>
+      </c>
+      <c r="F70">
+        <v>21</v>
+      </c>
+      <c r="G70">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43972</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>774</v>
+      </c>
+      <c r="C71">
+        <v>15003</v>
+      </c>
+      <c r="D71">
+        <v>4217</v>
+      </c>
+      <c r="E71">
+        <v>696</v>
+      </c>
+      <c r="F71">
+        <v>16</v>
+      </c>
+      <c r="G71">
+        <v>4798</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43973</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>783</v>
+      </c>
+      <c r="C72">
+        <v>15786</v>
+      </c>
+      <c r="D72">
+        <v>4374</v>
+      </c>
+      <c r="E72">
+        <v>707</v>
+      </c>
+      <c r="F72">
+        <v>11</v>
+      </c>
+      <c r="G72">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43974</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>727</v>
+      </c>
+      <c r="C73">
+        <v>16513</v>
+      </c>
+      <c r="D73">
+        <v>4628</v>
+      </c>
+      <c r="E73">
+        <v>735</v>
+      </c>
+      <c r="F73">
+        <v>28</v>
+      </c>
+      <c r="G73">
+        <v>5192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43975</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>752</v>
+      </c>
+      <c r="C74">
+        <v>17265</v>
+      </c>
+      <c r="D74">
+        <v>4807</v>
+      </c>
+      <c r="E74">
+        <v>764</v>
+      </c>
+      <c r="F74">
+        <v>29</v>
+      </c>
+      <c r="G74">
+        <v>5366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43976</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>702</v>
+      </c>
+      <c r="C75">
+        <v>17967</v>
+      </c>
+      <c r="D75">
+        <v>4900</v>
+      </c>
+      <c r="E75">
+        <v>783</v>
+      </c>
+      <c r="F75">
+        <v>19</v>
+      </c>
+      <c r="G75">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43977</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>789</v>
+      </c>
+      <c r="C76">
+        <v>18756</v>
+      </c>
+      <c r="D76">
+        <v>5027</v>
+      </c>
+      <c r="E76">
+        <v>797</v>
+      </c>
+      <c r="F76">
+        <v>14</v>
+      </c>
+      <c r="G76">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43978</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>910</v>
+      </c>
+      <c r="C77">
+        <v>19666</v>
+      </c>
+      <c r="D77">
+        <v>5205</v>
+      </c>
+      <c r="E77">
+        <v>816</v>
+      </c>
+      <c r="F77">
+        <v>19</v>
+      </c>
+      <c r="G77">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43979</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>1127</v>
+      </c>
+      <c r="C78">
+        <v>20793</v>
+      </c>
+      <c r="D78">
+        <v>5359</v>
+      </c>
+      <c r="E78">
+        <v>845</v>
+      </c>
+      <c r="F78">
+        <v>29</v>
+      </c>
+      <c r="G78">
+        <v>6019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43980</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>1289</v>
+      </c>
+      <c r="C79">
+        <v>22082</v>
+      </c>
+      <c r="D79">
+        <v>5511</v>
+      </c>
+      <c r="E79">
+        <v>879</v>
+      </c>
+      <c r="F79">
+        <v>34</v>
+      </c>
+      <c r="G79">
+        <v>6237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43981</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>1367</v>
+      </c>
+      <c r="C80">
+        <v>23449</v>
+      </c>
+      <c r="D80">
+        <v>5693</v>
+      </c>
+      <c r="E80">
+        <v>913</v>
+      </c>
+      <c r="F80">
+        <v>34</v>
+      </c>
+      <c r="G80">
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43982</v>
       </c>
+      <c r="B81">
+        <v>1536</v>
+      </c>
+      <c r="C81">
+        <v>24985</v>
+      </c>
+      <c r="D81">
+        <v>6037</v>
+      </c>
+      <c r="E81">
+        <v>959</v>
+      </c>
+      <c r="F81">
+        <v>46</v>
+      </c>
+      <c r="G81">
+        <v>6810</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B82">
+        <v>1399</v>
+      </c>
+      <c r="C82">
+        <v>26384</v>
+      </c>
+      <c r="D82">
+        <v>6447</v>
+      </c>
+      <c r="E82">
+        <v>1005</v>
+      </c>
+      <c r="F82">
+        <v>46</v>
+      </c>
+      <c r="G82">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B83">
+        <v>1152</v>
+      </c>
+      <c r="C83">
+        <v>27536</v>
+      </c>
+      <c r="D83">
+        <v>6827</v>
+      </c>
+      <c r="E83">
+        <v>1052</v>
+      </c>
+      <c r="F83">
+        <v>47</v>
+      </c>
+      <c r="G83">
+        <v>7642</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B84">
+        <v>1079</v>
+      </c>
+      <c r="C84">
+        <v>28615</v>
+      </c>
+      <c r="D84">
+        <v>7350</v>
+      </c>
+      <c r="E84">
+        <v>1088</v>
+      </c>
+      <c r="F84">
+        <v>36</v>
+      </c>
+      <c r="G84">
+        <v>8371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B85">
+        <v>1152</v>
+      </c>
+      <c r="C85">
+        <v>29767</v>
+      </c>
+      <c r="D85">
+        <v>7756</v>
+      </c>
+      <c r="E85">
+        <v>1126</v>
+      </c>
+      <c r="F85">
+        <v>38</v>
+      </c>
+      <c r="G85">
+        <v>8793</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B86">
+        <v>1348</v>
+      </c>
+      <c r="C86">
+        <v>31115</v>
+      </c>
+      <c r="D86">
+        <v>8158</v>
+      </c>
+      <c r="E86">
+        <v>1166</v>
+      </c>
+      <c r="F86">
+        <v>40</v>
+      </c>
+      <c r="G86">
+        <v>9216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B87">
+        <v>1497</v>
+      </c>
+      <c r="C87">
+        <v>32612</v>
+      </c>
+      <c r="D87">
+        <v>8538</v>
+      </c>
+      <c r="E87">
+        <v>1198</v>
+      </c>
+      <c r="F87">
+        <v>32</v>
+      </c>
+      <c r="G87">
+        <v>9603</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B88">
+        <v>1467</v>
+      </c>
+      <c r="C88">
+        <v>34079</v>
+      </c>
+      <c r="D88">
+        <v>8961</v>
+      </c>
+      <c r="E88">
+        <v>1237</v>
+      </c>
+      <c r="F88">
+        <v>39</v>
+      </c>
+      <c r="G88">
+        <v>10131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B89">
+        <v>1365</v>
+      </c>
+      <c r="C89">
+        <v>35444</v>
+      </c>
+      <c r="D89">
+        <v>9375</v>
+      </c>
+      <c r="E89">
+        <v>1271</v>
+      </c>
+      <c r="F89">
+        <v>34</v>
+      </c>
+      <c r="G89">
+        <v>10618</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B90">
+        <v>1385</v>
+      </c>
+      <c r="C90">
+        <v>36829</v>
+      </c>
+      <c r="D90">
+        <v>9786</v>
+      </c>
+      <c r="E90">
+        <v>1306</v>
+      </c>
+      <c r="F90">
+        <v>35</v>
+      </c>
+      <c r="G90">
+        <v>11071</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B91">
+        <v>1455</v>
+      </c>
+      <c r="C91">
+        <v>38284</v>
+      </c>
+      <c r="D91">
+        <v>10289</v>
+      </c>
+      <c r="E91">
+        <v>1342</v>
+      </c>
+      <c r="F91">
+        <v>36</v>
+      </c>
+      <c r="G91">
+        <v>11583</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B92">
+        <v>1442</v>
+      </c>
+      <c r="C92">
+        <v>39726</v>
+      </c>
+      <c r="D92">
+        <v>10691</v>
+      </c>
+      <c r="E92">
+        <v>1377</v>
+      </c>
+      <c r="F92">
+        <v>35</v>
+      </c>
+      <c r="G92">
+        <v>12062</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B93">
+        <v>1577</v>
+      </c>
+      <c r="C93">
+        <v>41303</v>
+      </c>
+      <c r="D93">
+        <v>11108</v>
+      </c>
+      <c r="E93">
+        <v>1422</v>
+      </c>
+      <c r="F93">
+        <v>45</v>
+      </c>
+      <c r="G93">
+        <v>12493</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B94">
+        <v>1677</v>
+      </c>
+      <c r="C94">
+        <v>42980</v>
+      </c>
+      <c r="D94">
+        <v>11529</v>
+      </c>
+      <c r="E94">
+        <v>1484</v>
+      </c>
+      <c r="F94">
+        <v>62</v>
+      </c>
+      <c r="G94">
+        <v>12919</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Egypt-data/Egypt.xlsx
+++ b/Egypt-data/Egypt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\R projects\COVID19\Egypt-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90257A67-BE51-45AE-A08F-0BA406BBCD49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BA2CCD-43EA-4EAF-B213-0F426B8CC08E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -882,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3052,57 +3052,6 @@
         <v>12919</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
